--- a/documents/Practice(2)_Grid.xlsx
+++ b/documents/Practice(2)_Grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF29B36-BBA8-4D92-9042-F4A524C1CFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BAD25B-DEA6-4CA9-AEEE-0F0453279B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="600" windowWidth="12528" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
-    <t>Participant</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>Trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -148,6 +148,9 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <font>
+        <b val="0"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -157,9 +160,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -176,13 +176,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:E13" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{93A40103-2987-4C95-BBE0-6777586D97D3}" name="Participant"/>
-    <tableColumn id="5" xr3:uid="{C723ADEB-1E1B-4130-91B6-5F6D30132E50}" name="Trial" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D13" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{C723ADEB-1E1B-4130-91B6-5F6D30132E50}" name="Trial" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{26104F84-F6E6-4F7C-847D-FF4167BC3B92}" name="Image" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{B8E21162-013D-4DE3-930F-C58E4C2BA1AA}" name="Modal_Correct" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B8E21162-013D-4DE3-930F-C58E4C2BA1AA}" name="Modal_Correct" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{20821954-F878-4EF4-9A00-5F73AE44F56C}" name="Response"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -486,27 +485,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -514,140 +512,142 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
